--- a/Altium Files/09.12.2024/Manufacturing/Assembly/BOM/IoT_Greenhouse V1.0 A_A_2024-09-12.xlsx
+++ b/Altium Files/09.12.2024/Manufacturing/Assembly/BOM/IoT_Greenhouse V1.0 A_A_2024-09-12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elio Fagundez\Documents\GitHub\Iot-GreenHouse-hardware\Altium Files\09.12.2024\Manufacturing\Assembly\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD024FE8-EF93-4434-A876-3FF5FE032BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782946C5-2EA7-49FF-B6A5-AE9086AB03BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
   <si>
     <t>Designator</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -469,30 +466,41 @@
   </si>
   <si>
     <t>1x4P PH 1 Tin 2mm 4 -25℃~+85℃ 2A Copper Alloy Surface Mount SMD,P=2mm Wire To Board / Wire To Wire Connector ROHS</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Qty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +513,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -608,19 +628,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -957,733 +990,859 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="48.25" customWidth="1"/>
-    <col min="4" max="4" width="44.25" customWidth="1"/>
-    <col min="5" max="5" width="98.375" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="48.25" customWidth="1"/>
+    <col min="5" max="5" width="44.25" customWidth="1"/>
+    <col min="6" max="6" width="98.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="D26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="D38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="2">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="2">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="2">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="2">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="2">
-        <v>3</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="2">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="E42" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="2">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
